--- a/upload_master_file/BOM MASTER.xlsx
+++ b/upload_master_file/BOM MASTER.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuchans\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanaps\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A503496D-1DD1-449E-8DD2-985E601A86F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13C8EA-8A5A-4066-A211-50DA4531EE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F01FDA4C-D8D1-4E82-83A0-7BDE0EDFE6E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>FG Code Set ABT</t>
   </si>
@@ -71,9 +63,6 @@
     <t>Customer Name</t>
   </si>
   <si>
-    <t>ALBATROSS LOGISTICS CO., LTD.</t>
-  </si>
-  <si>
     <t>Packing</t>
   </si>
   <si>
@@ -107,9 +96,6 @@
     <t>FG Code GDJ</t>
   </si>
   <si>
-    <t>ABT1</t>
-  </si>
-  <si>
     <t>Part Customer</t>
   </si>
   <si>
@@ -119,59 +105,71 @@
     <t>Cost/Pcs</t>
   </si>
   <si>
+    <t>Bom Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Show VMI</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PAD</t>
+  </si>
+  <si>
+    <t>ENR</t>
+  </si>
+  <si>
+    <t>CA105/3CA105/CA105</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>ENR242</t>
+  </si>
+  <si>
+    <t>PMM03AAE242X</t>
+  </si>
+  <si>
+    <t>3081401116 400*100 กระดาษ 3 ชั้น</t>
+  </si>
+  <si>
+    <t>ENRICH INDUSTRIAL (THAI) CO., LTD.</t>
+  </si>
+  <si>
+    <t>CA105/CA105/CA105</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>IMC130 - Partition - IMC010</t>
-  </si>
-  <si>
-    <t>BAA03CC010R</t>
-  </si>
-  <si>
-    <t>TSPT</t>
-  </si>
-  <si>
-    <t>Partition - IMC010 - IMC130</t>
-  </si>
-  <si>
-    <t>IMC130</t>
-  </si>
-  <si>
-    <t>Partition - IMC010</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>Insert</t>
-  </si>
-  <si>
-    <t>KA125/CA125/KA125</t>
-  </si>
-  <si>
-    <t>TSPT-EB3B16A262FA-A</t>
-  </si>
-  <si>
-    <t>TSPT-EB3B16A263FA-A</t>
-  </si>
-  <si>
-    <t>TSPT-EB3B28400FA-A</t>
-  </si>
-  <si>
-    <t>TSPT-EB3B28401FA-A</t>
-  </si>
-  <si>
-    <t>IMC130-EXPORT-SNP50-A</t>
-  </si>
-  <si>
-    <t>IMC130-EXPORT-SNP30-A</t>
+    <t>ENR273</t>
+  </si>
+  <si>
+    <t>PMM03AAE273X</t>
+  </si>
+  <si>
+    <t>3081401360 785*100 กระดาษ 3 ชั้น</t>
+  </si>
+  <si>
+    <t>ENR368</t>
+  </si>
+  <si>
+    <t>PMM23AAE368X</t>
+  </si>
+  <si>
+    <t>3081701218 2040*330 กระดาษ 5 ชั้น</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +179,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,11 +228,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -240,6 +260,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,44 +579,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E383D-E156-472D-BDDE-5FB8DC94B632}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="1"/>
+    <col min="19" max="19" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -614,16 +640,16 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>5</v>
@@ -638,182 +664,194 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="X1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3081401116</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="3">
-        <v>50</v>
+      <c r="H2" s="8">
+        <v>3081401116</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N2" s="4">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="O2" s="4">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="P2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5">
+        <v>10</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>3081401116</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>1.84</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3081401360</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="5">
-        <v>20</v>
-      </c>
-      <c r="T2" s="4">
-        <v>40</v>
-      </c>
-      <c r="U2" s="4">
-        <v>80</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
+      <c r="H3" s="3">
+        <v>3081401360</v>
       </c>
       <c r="I3" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N3" s="4">
-        <v>240</v>
+        <v>785</v>
       </c>
       <c r="O3" s="4">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S3" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -821,79 +859,85 @@
       <c r="W3" s="4">
         <v>0</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>4</v>
+      <c r="X3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>3081401360</v>
       </c>
       <c r="Z3" s="4">
-        <v>8</v>
+        <v>1.94</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
+      <c r="B4" s="3">
+        <v>3081701218</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>3081701218</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4">
+        <v>330</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2040</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3">
-        <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="4">
-        <v>140</v>
-      </c>
-      <c r="N4" s="4">
-        <v>240</v>
-      </c>
-      <c r="O4" s="4">
-        <v>120</v>
-      </c>
-      <c r="P4" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="S4" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T4" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4">
         <v>0</v>
@@ -901,94 +945,20 @@
       <c r="W4" s="4">
         <v>0</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>4</v>
+      <c r="X4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>3081701218</v>
       </c>
       <c r="Z4" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="4">
-        <v>140</v>
-      </c>
-      <c r="N5" s="4">
-        <v>240</v>
-      </c>
-      <c r="O5" s="4">
-        <v>120</v>
-      </c>
-      <c r="P5" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="5">
-        <v>20</v>
-      </c>
-      <c r="T5" s="4">
-        <v>40</v>
-      </c>
-      <c r="U5" s="4">
-        <v>80</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>8</v>
+        <v>12.4</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>18.22</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
